--- a/DataTables/Datas/test/define_from_excel.xlsx
+++ b/DataTables/Datas/test/define_from_excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\DataTables\Datas\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A7D75B-7197-4D01-B5CF-BFA3084D9643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23490" windowHeight="12765"/>
+    <workbookView xWindow="42300" yWindow="3600" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="96">
   <si>
     <t>##</t>
   </si>
@@ -23,8 +29,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
@@ -33,8 +39,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -162,8 +168,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
@@ -172,8 +178,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
@@ -184,8 +190,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>这是i</t>
@@ -194,8 +200,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -351,171 +357,62 @@
   <si>
     <t>1,2,3,14</t>
   </si>
+  <si>
+    <t>v11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vec3?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,182 +437,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -723,331 +446,54 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="22" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1305,43 +751,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="10.552380952381" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="8.88571428571429" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="19.1142857142857" customWidth="1"/>
-    <col min="8" max="8" width="29.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.1142857142857" customWidth="1"/>
-    <col min="10" max="10" width="11.552380952381" customWidth="1"/>
-    <col min="11" max="11" width="12.2190476190476" customWidth="1"/>
-    <col min="12" max="13" width="20.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="20.3333333333333" customWidth="1"/>
-    <col min="16" max="16" width="17.552380952381" customWidth="1"/>
-    <col min="20" max="20" width="33.5714285714286" customWidth="1"/>
-    <col min="21" max="21" width="18.1142857142857" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="29.375" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="13" width="20.375" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="33.625" customWidth="1"/>
+    <col min="21" max="21" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:27">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1353,7 +799,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1362,11 +808,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1382,29 +828,32 @@
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
       <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9" t="s">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:27">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1429,11 +878,11 @@
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1449,29 +898,32 @@
       <c r="P2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
       <c r="T2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7" t="s">
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:19">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1484,23 +936,23 @@
       <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -1510,7 +962,7 @@
       <c r="E5">
         <v>1.28</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
       <c r="G5" t="s">
@@ -1534,7 +986,7 @@
       <c r="N5" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="6" t="s">
         <v>48</v>
       </c>
       <c r="P5" t="s">
@@ -1571,7 +1023,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10001</v>
       </c>
@@ -1581,7 +1033,7 @@
       <c r="E6">
         <v>1.28</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>5</v>
       </c>
       <c r="G6" t="s">
@@ -1605,7 +1057,7 @@
       <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="P6" t="s">
@@ -1641,8 +1093,11 @@
       <c r="AA6" t="s">
         <v>60</v>
       </c>
+      <c r="AB6" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10002</v>
       </c>
@@ -1655,7 +1110,7 @@
       <c r="E7">
         <v>1.28</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>6</v>
       </c>
       <c r="G7" t="s">
@@ -1673,7 +1128,7 @@
       <c r="N7" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="P7" t="s">
@@ -1710,7 +1165,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>10003</v>
       </c>
@@ -1723,7 +1178,7 @@
       <c r="E8">
         <v>1.28</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>3</v>
       </c>
       <c r="G8" t="s">
@@ -1741,7 +1196,7 @@
       <c r="N8" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="P8" t="s">
@@ -1778,7 +1233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10004</v>
       </c>
@@ -1791,7 +1246,7 @@
       <c r="E9">
         <v>1.28</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>4</v>
       </c>
       <c r="G9" t="s">
@@ -1809,7 +1264,7 @@
       <c r="N9" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="P9" t="s">
@@ -1846,7 +1301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>10005</v>
       </c>
@@ -1859,7 +1314,7 @@
       <c r="E10">
         <v>1.28</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>5</v>
       </c>
       <c r="G10" t="s">
@@ -1877,7 +1332,7 @@
       <c r="N10" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="P10" t="s">
@@ -1911,7 +1366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10006</v>
       </c>
@@ -1921,7 +1376,7 @@
       <c r="E11">
         <v>1.28</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>6</v>
       </c>
       <c r="G11" t="s">
@@ -1936,7 +1391,7 @@
       <c r="N11" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="6" t="s">
         <v>62</v>
       </c>
       <c r="P11" t="s">
@@ -1970,7 +1425,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10007</v>
       </c>
@@ -1992,7 +1447,7 @@
       <c r="N12" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="P12" t="s">
@@ -2029,7 +1484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10008</v>
       </c>
@@ -2051,7 +1506,7 @@
       <c r="N13" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="6" t="s">
         <v>48</v>
       </c>
       <c r="P13" t="s">
@@ -2099,8 +1554,8 @@
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTables/Datas/test/define_from_excel.xlsx
+++ b/DataTables/Datas/test/define_from_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\DataTables\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A7D75B-7197-4D01-B5CF-BFA3084D9643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA6D36E-31C9-46EC-8CF3-63BA868F19A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42300" yWindow="3600" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
   <si>
     <t>##</t>
   </si>
@@ -367,6 +367,58 @@
   </si>
   <si>
     <t>1,2,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{},2,3,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vec3,2,2,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,array,int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,list,int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,set,int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>map,int,list,int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>map,int,map,int,int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -470,6 +522,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,7 +532,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -757,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,9 +833,11 @@
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="20" max="20" width="33.625" customWidth="1"/>
     <col min="21" max="21" width="18.125" customWidth="1"/>
+    <col min="30" max="30" width="12.375" customWidth="1"/>
+    <col min="33" max="33" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,11 +862,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
@@ -828,32 +882,47 @@
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
       <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
       <c r="AB1" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -878,11 +947,11 @@
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
@@ -898,32 +967,47 @@
       <c r="P2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
       <c r="T2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9" t="s">
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
       <c r="AB2" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="AD2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -940,7 +1024,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -952,7 +1036,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -1023,7 +1107,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10001</v>
       </c>
@@ -1093,11 +1177,11 @@
       <c r="AA6" t="s">
         <v>60</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10002</v>
       </c>
@@ -1164,8 +1248,11 @@
       <c r="AA7" t="s">
         <v>65</v>
       </c>
+      <c r="AB7" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>10003</v>
       </c>
@@ -1232,8 +1319,11 @@
       <c r="AA8" t="s">
         <v>70</v>
       </c>
+      <c r="AB8" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10004</v>
       </c>
@@ -1300,8 +1390,11 @@
       <c r="AA9" t="s">
         <v>75</v>
       </c>
+      <c r="AB9" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>10005</v>
       </c>
@@ -1366,7 +1459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10006</v>
       </c>
@@ -1425,7 +1518,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10007</v>
       </c>
@@ -1484,7 +1577,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10008</v>
       </c>

--- a/DataTables/Datas/test/define_from_excel.xlsx
+++ b/DataTables/Datas/test/define_from_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\DataTables\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA6D36E-31C9-46EC-8CF3-63BA868F19A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F803B0D-0935-42D1-B293-2FBF164E1BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2730" windowWidth="38430" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
   <si>
     <t>##</t>
   </si>
@@ -379,46 +379,6 @@
   </si>
   <si>
     <t>vec3,2,2,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>array,array,int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,list,int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,set,int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>map,int,list,int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>map,int,map,int,int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -809,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+      <selection activeCell="AD1" sqref="AD1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,11 +793,9 @@
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="20" max="20" width="33.625" customWidth="1"/>
     <col min="21" max="21" width="18.125" customWidth="1"/>
-    <col min="30" max="30" width="12.375" customWidth="1"/>
-    <col min="33" max="33" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,23 +864,8 @@
       <c r="AB1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>107</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -991,23 +934,8 @@
       <c r="AB2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1024,7 +952,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -1036,7 +964,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -1107,7 +1035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10001</v>
       </c>
@@ -1181,7 +1109,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10002</v>
       </c>
@@ -1252,7 +1180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>10003</v>
       </c>
@@ -1323,7 +1251,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10004</v>
       </c>
@@ -1394,7 +1322,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>10005</v>
       </c>
@@ -1459,7 +1387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10006</v>
       </c>
@@ -1518,7 +1446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10007</v>
       </c>
@@ -1577,7 +1505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10008</v>
       </c>

--- a/DataTables/Datas/test/define_from_excel.xlsx
+++ b/DataTables/Datas/test/define_from_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\DataTables\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F803B0D-0935-42D1-B293-2FBF164E1BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A1F0A0-87E7-4BC6-9805-0E9A4FA355C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2730" windowWidth="38430" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="4620" windowWidth="34200" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
   <si>
     <t>##</t>
   </si>
@@ -379,6 +379,22 @@
   </si>
   <si>
     <t>vec3,2,2,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x13_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.DemoFlag#sep=,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -483,6 +499,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AI1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -788,14 +807,15 @@
     <col min="9" max="9" width="11.125" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="12.25" customWidth="1"/>
-    <col min="12" max="13" width="20.375" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
-    <col min="20" max="20" width="33.625" customWidth="1"/>
-    <col min="21" max="21" width="18.125" customWidth="1"/>
+    <col min="12" max="12" width="22.875" customWidth="1"/>
+    <col min="13" max="14" width="20.375" customWidth="1"/>
+    <col min="16" max="16" width="20.375" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="33.625" customWidth="1"/>
+    <col min="22" max="22" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,52 +840,55 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9" t="s">
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="1" t="s">
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -890,52 +913,55 @@
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="2" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10" t="s">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="2" t="s">
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -948,11 +974,11 @@
       <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -964,7 +990,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -989,53 +1015,56 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>46</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>49</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
       <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>2</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>50</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>51</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>52</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>53</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>54</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10001</v>
       </c>
@@ -1060,56 +1089,59 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" t="s">
         <v>45</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>57</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>49</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
       <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>2</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>50</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>51</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>54</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>58</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>55</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>56</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>60</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AC6" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10002</v>
       </c>
@@ -1131,56 +1163,59 @@
       <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" t="s">
         <v>45</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>61</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>49</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
       <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>50</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>59</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>63</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>56</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>65</v>
       </c>
-      <c r="AB7" s="7" t="s">
+      <c r="AC7" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>10003</v>
       </c>
@@ -1202,56 +1237,56 @@
       <c r="H8" t="s">
         <v>38</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>45</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>66</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>49</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
       <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>50</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>51</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>64</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>68</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>69</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>65</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>70</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AC8" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10004</v>
       </c>
@@ -1273,56 +1308,56 @@
       <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>45</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>71</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>49</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
       <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>50</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>51</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>69</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>73</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>74</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>65</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>75</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AC9" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>10005</v>
       </c>
@@ -1344,50 +1379,50 @@
       <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>45</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>76</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>49</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
         <v>50</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>51</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>74</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>77</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>78</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>70</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>75</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10006</v>
       </c>
@@ -1403,50 +1438,50 @@
       <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>45</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>49</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
         <v>50</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>51</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>78</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>82</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>83</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>75</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>79</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10007</v>
       </c>
@@ -1459,53 +1494,53 @@
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>45</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>85</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>49</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
       <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
         <v>2</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>50</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>51</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>83</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>86</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>87</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>79</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>84</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10008</v>
       </c>
@@ -1518,62 +1553,62 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>45</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>89</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>49</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
       <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>2</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>50</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>51</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>87</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>90</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>84</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>88</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataTables/Datas/test/define_from_excel.xlsx
+++ b/DataTables/Datas/test/define_from_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\DataTables\Datas\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban\luban_examples\DataTables\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A1F0A0-87E7-4BC6-9805-0E9A4FA355C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2722BB60-2AE2-4F23-968F-3A05BA2D61F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="4620" windowWidth="34200" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="3465" windowWidth="30000" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
